--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\selenium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA9EE2-05A9-41C7-9685-3E731C671066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Sl no</t>
   </si>
@@ -22,77 +29,98 @@
     <t>Name</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Mob</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>Janu</t>
+  </si>
+  <si>
+    <t>Jhansi</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Dilwale</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Manav</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Chotu</t>
+  </si>
+  <si>
+    <t>Orai</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Eranjana</t>
+  </si>
+  <si>
+    <t>Konch</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Jalaun</t>
+  </si>
+  <si>
     <t>Manan</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>Manav</t>
-  </si>
-  <si>
-    <t>Chotu</t>
-  </si>
-  <si>
-    <t>Eranjana</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Jhansi</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Orai</t>
-  </si>
-  <si>
-    <t>Konch</t>
-  </si>
-  <si>
-    <t>Jalaun</t>
-  </si>
-  <si>
-    <t>Mob</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +131,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -115,14 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +312,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -279,31 +322,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -325,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +426,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +439,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,149 +462,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>456789</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>65432</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8765</v>
+      </c>
+      <c r="E4" s="2">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>47654</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37654</v>
+      </c>
+      <c r="E6" s="2">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>765</v>
+      </c>
+      <c r="E7" s="2">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>65432</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8765</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>47654</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" s="2">
+        <v>37654</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>8765</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>47654</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>37654</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>765</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
     </row>
